--- a/MiseAJour_Contenu_EnTete/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_EnTete/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T15:17:03+00:00</t>
+    <t>2025-01-28T16:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
